--- a/Bloque Cuantica-Estadistica/P7 Maxwell/Data.xlsx
+++ b/Bloque Cuantica-Estadistica/P7 Maxwell/Data.xlsx
@@ -8,34 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpetas de datos\Desktop\UNI-Alicante\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P7 Maxwell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9AC152-5484-449D-94AE-68BD2F4E0943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F7230E-5A94-4358-A9B5-78874C109868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>n Compartimento (izqda derecha)</t>
   </si>
   <si>
-    <t>n canicas</t>
-  </si>
-  <si>
-    <t>V media</t>
-  </si>
-  <si>
     <t>Datos extra</t>
   </si>
   <si>
@@ -43,12 +46,48 @@
   </si>
   <si>
     <t>g(m/s^2)</t>
+  </si>
+  <si>
+    <t>v asoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>Nfav</t>
+  </si>
+  <si>
+    <t>xasoc</t>
+  </si>
+  <si>
+    <t>Ntot</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d </t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>P(v)</t>
+  </si>
+  <si>
+    <t>err x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,8 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,37 +405,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>I5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3*SQRT($I$3/(2*$I$4))</f>
+        <v>7.8302298816829125E-2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="e">
+        <f>E3/$E$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4*$C$3</f>
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D26" si="0">C4*SQRT($I$3/(2*$I$4))</f>
+        <v>0.15660459763365825</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="e">
+        <f t="shared" ref="F4:F26" si="1">E4/$E$27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B26" si="2">B4+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C26" si="3">B5*$C$3</f>
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23490689645048737</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3132091952673165</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>4</v>
+      <c r="C7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39151149408414565</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46981379290097475</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54811609171780395</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.626418390534633</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.70472068935146215</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7830229881682913</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86132528698512034</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93962758580194949</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0179298846187788</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0962321834356079</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1745344822524368</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.252836781069266</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3311390798860951</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4094413787029243</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4877436775197534</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5660459763365826</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6443482751534115</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7226505739702407</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8009528727870701</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.879255171603899</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E3:E26)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bloque Cuantica-Estadistica/P7 Maxwell/Data.xlsx
+++ b/Bloque Cuantica-Estadistica/P7 Maxwell/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carpetas de datos\Desktop\UNI-Alicante\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P7 Maxwell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feyra\Desktop\UNI\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P7 Maxwell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F7230E-5A94-4358-A9B5-78874C109868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DD27C7-89F2-4F0C-98FB-0F391AEEC807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -140,6 +131,1067 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>P(v)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3402360017497813"/>
+          <c:y val="1.3888888888888888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.8302298816829125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15660459763365825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23490689645048737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3132091952673165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39151149408414565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46981379290097475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54811609171780395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.626418390534633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70472068935146215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7830229881682913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86132528698512034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93962758580194949</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0179298846187788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0962321834356079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1745344822524368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.252836781069266</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3311390798860951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4094413787029243</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4877436775197534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5660459763365826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6443482751534115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7226505739702407</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8009528727870701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.879255171603899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.7716535433070866E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6614173228346455E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11614173228346457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17716535433070865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11811023622047244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2519685039370081E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2992125984251968E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7086614173228349E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1338582677165357E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1181102362204724E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7559055118110236E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3464566929133861E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7716535433070866E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3622047244094488E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5748031496062992E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.905511811023622E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1811023622047244E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.874015748031496E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.968503937007874E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.905511811023622E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.874015748031496E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.874015748031496E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.874015748031496E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.937007874015748E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB0-450A-87B3-958FC05F74CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1979260863"/>
+        <c:axId val="1750789103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1979260863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750789103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1750789103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1979260863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C3E61F-AF31-4FD8-91A7-AF8DBFF57850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,17 +1460,17 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -450,10 +1502,12 @@
         <f>C3*SQRT($I$3/(2*$I$4))</f>
         <v>7.8302298816829125E-2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" t="e">
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <f>E3/$E$27</f>
-        <v>#DIV/0!</v>
+        <v>1.7716535433070866E-2</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -465,7 +1519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <f>B3+1</f>
         <v>2</v>
@@ -478,10 +1532,12 @@
         <f t="shared" ref="D4:D26" si="0">C4*SQRT($I$3/(2*$I$4))</f>
         <v>0.15660459763365825</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="e">
+      <c r="E4" s="1">
+        <v>44</v>
+      </c>
+      <c r="F4">
         <f t="shared" ref="F4:F26" si="1">E4/$E$27</f>
-        <v>#DIV/0!</v>
+        <v>8.6614173228346455E-2</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -493,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B26" si="2">B4+1</f>
         <v>3</v>
@@ -506,10 +1562,12 @@
         <f t="shared" si="0"/>
         <v>0.23490689645048737</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E5" s="1">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.11614173228346457</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -521,7 +1579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -534,10 +1592,12 @@
         <f t="shared" si="0"/>
         <v>0.3132091952673165</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E6" s="1">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.17716535433070865</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -549,7 +1609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -562,13 +1622,15 @@
         <f t="shared" si="0"/>
         <v>0.39151149408414565</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.11811023622047244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -581,13 +1643,15 @@
         <f t="shared" si="0"/>
         <v>0.46981379290097475</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9.2519685039370081E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -600,13 +1664,15 @@
         <f t="shared" si="0"/>
         <v>0.54811609171780395</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.2992125984251968E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -619,13 +1685,15 @@
         <f t="shared" si="0"/>
         <v>0.626418390534633</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.7086614173228349E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -638,13 +1706,15 @@
         <f t="shared" si="0"/>
         <v>0.70472068935146215</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.1338582677165357E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -657,13 +1727,15 @@
         <f t="shared" si="0"/>
         <v>0.7830229881682913</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.1181102362204724E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -676,13 +1748,15 @@
         <f t="shared" si="0"/>
         <v>0.86132528698512034</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.7559055118110236E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -695,13 +1769,15 @@
         <f t="shared" si="0"/>
         <v>0.93962758580194949</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3.3464566929133861E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -714,13 +1790,15 @@
         <f t="shared" si="0"/>
         <v>1.0179298846187788</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.7716535433070866E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -733,13 +1811,15 @@
         <f t="shared" si="0"/>
         <v>1.0962321834356079</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.3622047244094488E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -752,13 +1832,15 @@
         <f t="shared" si="0"/>
         <v>1.1745344822524368</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -771,13 +1853,15 @@
         <f t="shared" si="0"/>
         <v>1.252836781069266</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.905511811023622E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -790,13 +1874,15 @@
         <f t="shared" si="0"/>
         <v>1.3311390798860951</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.1811023622047244E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -809,13 +1895,15 @@
         <f t="shared" si="0"/>
         <v>1.4094413787029243</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>7.874015748031496E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -828,13 +1916,15 @@
         <f t="shared" si="0"/>
         <v>1.4877436775197534</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.968503937007874E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -847,13 +1937,15 @@
         <f t="shared" si="0"/>
         <v>1.5660459763365826</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.905511811023622E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -866,13 +1958,15 @@
         <f t="shared" si="0"/>
         <v>1.6443482751534115</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>7.874015748031496E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -885,13 +1979,15 @@
         <f t="shared" si="0"/>
         <v>1.7226505739702407</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>7.874015748031496E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -904,13 +2000,15 @@
         <f t="shared" si="0"/>
         <v>1.8009528727870701</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>7.874015748031496E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -923,22 +2021,25 @@
         <f t="shared" si="0"/>
         <v>1.879255171603899</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>3.937007874015748E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27">
         <f>SUM(E3:E26)</f>
-        <v>0</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bloque Cuantica-Estadistica/P7 Maxwell/Data.xlsx
+++ b/Bloque Cuantica-Estadistica/P7 Maxwell/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feyra\Desktop\UNI\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P7 Maxwell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DD27C7-89F2-4F0C-98FB-0F391AEEC807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB6ED7-3BF4-4BFA-9F8A-C5AA730EB46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1460,7 +1460,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
